--- a/config_12.28/shoping_config.xlsx
+++ b/config_12.28/shoping_config.xlsx
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6159" uniqueCount="2170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6172" uniqueCount="2176">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -6892,10 +6892,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>9999999999,1,0</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>"jing_bi",</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -8416,6 +8412,34 @@
   </si>
   <si>
     <t>"jing_bi","jing_bi","prop_tiny_game_coin","jing_bi",</t>
+  </si>
+  <si>
+    <t>新年福利</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"880万金币",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>8800000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>9999999999,1,0</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>9999999999,1,0</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "xnfl_1228_canshop" }</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -14921,13 +14945,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO788"/>
+  <dimension ref="A1:AO790"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="W659" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="X779" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AA679" sqref="AA679"/>
+      <selection pane="bottomRight" activeCell="Y796" sqref="Y796"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -15127,7 +15151,7 @@
         <v>200</v>
       </c>
       <c r="R2" s="21" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="S2" s="76" t="s">
         <v>172</v>
@@ -57119,10 +57143,10 @@
         <v>1</v>
       </c>
       <c r="G655" s="90" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="H655" s="116" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="K655" s="90" t="s">
         <v>1606</v>
@@ -57187,7 +57211,7 @@
         <v>1</v>
       </c>
       <c r="G656" s="89" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="H656" s="117"/>
       <c r="K656" s="90" t="s">
@@ -57253,7 +57277,7 @@
         <v>1</v>
       </c>
       <c r="G657" s="89" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="H657" s="117"/>
       <c r="K657" s="90" t="s">
@@ -57319,7 +57343,7 @@
         <v>1</v>
       </c>
       <c r="G658" s="89" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="H658" s="117"/>
       <c r="K658" s="90" t="s">
@@ -57385,7 +57409,7 @@
         <v>1</v>
       </c>
       <c r="G659" s="89" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="H659" s="117"/>
       <c r="K659" s="90" t="s">
@@ -57451,7 +57475,7 @@
         <v>1</v>
       </c>
       <c r="G660" s="89" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="H660" s="117"/>
       <c r="K660" s="90" t="s">
@@ -57517,7 +57541,7 @@
         <v>1</v>
       </c>
       <c r="G661" s="89" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="H661" s="117"/>
       <c r="K661" s="90" t="s">
@@ -58222,16 +58246,16 @@
         <v>1</v>
       </c>
       <c r="G671" s="91" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="H671" s="91" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="J671" s="91" t="s">
         <v>1538</v>
       </c>
       <c r="K671" s="91" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="M671" s="91">
         <v>-31</v>
@@ -58249,7 +58273,7 @@
         <v>600</v>
       </c>
       <c r="R671" s="91" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="S671" s="88" t="s">
         <v>1560</v>
@@ -58293,16 +58317,16 @@
         <v>1</v>
       </c>
       <c r="G672" s="91" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="H672" s="91" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="J672" s="91" t="s">
         <v>1538</v>
       </c>
       <c r="K672" s="91" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="M672" s="91">
         <v>-31</v>
@@ -58320,7 +58344,7 @@
         <v>1000</v>
       </c>
       <c r="R672" s="91" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="S672" s="88" t="s">
         <v>1562</v>
@@ -58364,16 +58388,16 @@
         <v>1</v>
       </c>
       <c r="G673" s="91" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="H673" s="91" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="J673" s="91" t="s">
         <v>1538</v>
       </c>
       <c r="K673" s="91" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="M673" s="91">
         <v>-31</v>
@@ -58391,7 +58415,7 @@
         <v>1800</v>
       </c>
       <c r="R673" s="91" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="S673" s="88" t="s">
         <v>1564</v>
@@ -58435,10 +58459,10 @@
         <v>1</v>
       </c>
       <c r="G674" s="91" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="H674" s="91" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="J674" s="91" t="s">
         <v>1545</v>
@@ -58462,7 +58486,7 @@
         <v>1800</v>
       </c>
       <c r="R674" s="91" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="S674" s="88" t="s">
         <v>1547</v>
@@ -58506,10 +58530,10 @@
         <v>1</v>
       </c>
       <c r="G675" s="91" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="H675" s="91" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="J675" s="91" t="s">
         <v>1545</v>
@@ -58533,7 +58557,7 @@
         <v>3000</v>
       </c>
       <c r="R675" s="91" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="S675" s="88" t="s">
         <v>1549</v>
@@ -58577,10 +58601,10 @@
         <v>1</v>
       </c>
       <c r="G676" s="91" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="H676" s="91" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="J676" s="91" t="s">
         <v>1545</v>
@@ -58604,7 +58628,7 @@
         <v>4800</v>
       </c>
       <c r="R676" s="91" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="S676" s="88" t="s">
         <v>1551</v>
@@ -58648,10 +58672,10 @@
         <v>1</v>
       </c>
       <c r="G677" s="91" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="H677" s="91" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="J677" s="91" t="s">
         <v>1552</v>
@@ -58675,7 +58699,7 @@
         <v>4800</v>
       </c>
       <c r="R677" s="91" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="S677" s="88" t="s">
         <v>1551</v>
@@ -58719,10 +58743,10 @@
         <v>1</v>
       </c>
       <c r="G678" s="91" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="H678" s="91" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="J678" s="91" t="s">
         <v>1552</v>
@@ -58746,7 +58770,7 @@
         <v>9800</v>
       </c>
       <c r="R678" s="91" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="S678" s="88" t="s">
         <v>1554</v>
@@ -58790,10 +58814,10 @@
         <v>1</v>
       </c>
       <c r="G679" s="91" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="H679" s="91" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="J679" s="91" t="s">
         <v>1552</v>
@@ -58817,7 +58841,7 @@
         <v>19800</v>
       </c>
       <c r="R679" s="91" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="S679" s="88" t="s">
         <v>1556</v>
@@ -58861,10 +58885,10 @@
         <v>1</v>
       </c>
       <c r="G680" s="91" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="H680" s="91" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="J680" s="91" t="s">
         <v>1441</v>
@@ -58888,7 +58912,7 @@
         <v>9800</v>
       </c>
       <c r="R680" s="91" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="S680" s="88" t="s">
         <v>1554</v>
@@ -58932,10 +58956,10 @@
         <v>1</v>
       </c>
       <c r="G681" s="91" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="H681" s="91" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="J681" s="91" t="s">
         <v>1441</v>
@@ -58959,7 +58983,7 @@
         <v>19800</v>
       </c>
       <c r="R681" s="91" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="S681" s="88" t="s">
         <v>1556</v>
@@ -59003,10 +59027,10 @@
         <v>1</v>
       </c>
       <c r="G682" s="91" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="H682" s="91" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="J682" s="91" t="s">
         <v>1441</v>
@@ -59030,7 +59054,7 @@
         <v>49800</v>
       </c>
       <c r="R682" s="91" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="S682" s="88" t="s">
         <v>1558</v>
@@ -59077,7 +59101,7 @@
         <v>1645</v>
       </c>
       <c r="H683" s="114" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="K683" s="28" t="s">
         <v>1572</v>
@@ -59475,7 +59499,7 @@
         <v>1647</v>
       </c>
       <c r="H689" s="114" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="K689" s="28" t="s">
         <v>1572</v>
@@ -59894,10 +59918,10 @@
         <v>600</v>
       </c>
       <c r="R695" s="84" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="S695" s="86" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="X695" s="84" t="s">
         <v>1850</v>
@@ -59915,13 +59939,13 @@
         <v>85</v>
       </c>
       <c r="AC695" s="84" t="s">
+        <v>1852</v>
+      </c>
+      <c r="AD695" s="84" t="s">
         <v>1853</v>
       </c>
-      <c r="AD695" s="84" t="s">
-        <v>1854</v>
-      </c>
       <c r="AE695" s="85" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="AI695" s="35">
         <v>1</v>
@@ -59971,10 +59995,10 @@
         <v>1000</v>
       </c>
       <c r="R696" s="84" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="S696" s="86" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="X696" s="84" t="s">
         <v>1851</v>
@@ -59992,13 +60016,13 @@
         <v>85</v>
       </c>
       <c r="AC696" s="84" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="AD696" s="84" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="AE696" s="85" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="AI696" s="35">
         <v>1</v>
@@ -60048,13 +60072,13 @@
         <v>4800</v>
       </c>
       <c r="R697" s="84" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="S697" s="86" t="s">
-        <v>1862</v>
-      </c>
-      <c r="X697" s="84" t="s">
-        <v>1852</v>
+        <v>1861</v>
+      </c>
+      <c r="X697" s="35" t="s">
+        <v>2173</v>
       </c>
       <c r="Y697" s="35">
         <v>99999999</v>
@@ -60069,13 +60093,13 @@
         <v>85</v>
       </c>
       <c r="AC697" s="84" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="AD697" s="84" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="AE697" s="85" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="AI697" s="35">
         <v>1</v>
@@ -60101,10 +60125,10 @@
         <v>1</v>
       </c>
       <c r="G698" s="97" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="H698" s="116" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="K698" s="93" t="s">
         <v>1606</v>
@@ -60116,7 +60140,7 @@
         <v>0</v>
       </c>
       <c r="O698" s="93" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="P698" s="93" t="s">
         <v>170</v>
@@ -60169,7 +60193,7 @@
         <v>1</v>
       </c>
       <c r="G699" s="96" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="H699" s="117"/>
       <c r="K699" s="93" t="s">
@@ -60235,7 +60259,7 @@
         <v>1</v>
       </c>
       <c r="G700" s="96" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="H700" s="117"/>
       <c r="K700" s="93" t="s">
@@ -60301,7 +60325,7 @@
         <v>1</v>
       </c>
       <c r="G701" s="96" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="H701" s="117"/>
       <c r="K701" s="93" t="s">
@@ -60367,7 +60391,7 @@
         <v>1</v>
       </c>
       <c r="G702" s="96" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="H702" s="117"/>
       <c r="K702" s="93" t="s">
@@ -60433,7 +60457,7 @@
         <v>1</v>
       </c>
       <c r="G703" s="96" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="H703" s="117"/>
       <c r="K703" s="93" t="s">
@@ -60499,7 +60523,7 @@
         <v>1</v>
       </c>
       <c r="G704" s="96" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="H704" s="117"/>
       <c r="K704" s="93" t="s">
@@ -60527,7 +60551,7 @@
         <v>1115</v>
       </c>
       <c r="X704" s="95" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="Y704" s="93">
         <v>99999999</v>
@@ -60565,13 +60589,13 @@
         <v>0</v>
       </c>
       <c r="G705" s="35" t="s">
+        <v>1875</v>
+      </c>
+      <c r="J705" s="35" t="s">
         <v>1876</v>
       </c>
-      <c r="J705" s="35" t="s">
-        <v>1877</v>
-      </c>
       <c r="K705" s="84" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="M705" s="35">
         <v>-31</v>
@@ -60583,13 +60607,13 @@
         <v>0</v>
       </c>
       <c r="P705" s="84" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="Q705" s="35">
         <v>1000</v>
       </c>
       <c r="X705" s="84" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="Y705" s="35">
         <v>99999999</v>
@@ -60604,13 +60628,13 @@
         <v>14</v>
       </c>
       <c r="AC705" s="84" t="s">
+        <v>1879</v>
+      </c>
+      <c r="AD705" s="84" t="s">
         <v>1880</v>
       </c>
-      <c r="AD705" s="84" t="s">
-        <v>1881</v>
-      </c>
       <c r="AE705" s="85" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="AI705" s="35">
         <v>1</v>
@@ -60636,13 +60660,13 @@
         <v>0</v>
       </c>
       <c r="G706" s="35" t="s">
+        <v>1875</v>
+      </c>
+      <c r="J706" s="35" t="s">
         <v>1876</v>
       </c>
-      <c r="J706" s="35" t="s">
-        <v>1877</v>
-      </c>
       <c r="K706" s="84" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="M706" s="35">
         <v>-31</v>
@@ -60654,13 +60678,13 @@
         <v>0</v>
       </c>
       <c r="P706" s="84" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="Q706" s="35">
         <v>5000</v>
       </c>
       <c r="X706" s="84" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="Y706" s="35">
         <v>99999999</v>
@@ -60675,13 +60699,13 @@
         <v>14</v>
       </c>
       <c r="AC706" s="84" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="AD706" s="84" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="AE706" s="85" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="AI706" s="35">
         <v>1</v>
@@ -60707,13 +60731,13 @@
         <v>0</v>
       </c>
       <c r="G707" s="35" t="s">
+        <v>1875</v>
+      </c>
+      <c r="J707" s="35" t="s">
         <v>1876</v>
       </c>
-      <c r="J707" s="35" t="s">
-        <v>1877</v>
-      </c>
       <c r="K707" s="84" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="M707" s="35">
         <v>-31</v>
@@ -60725,13 +60749,13 @@
         <v>0</v>
       </c>
       <c r="P707" s="84" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="Q707" s="35">
         <v>9800</v>
       </c>
       <c r="X707" s="84" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="Y707" s="35">
         <v>99999999</v>
@@ -60746,13 +60770,13 @@
         <v>14</v>
       </c>
       <c r="AC707" s="84" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="AD707" s="84" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="AE707" s="85" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="AI707" s="35">
         <v>1</v>
@@ -60778,13 +60802,13 @@
         <v>0</v>
       </c>
       <c r="G708" s="35" t="s">
+        <v>1875</v>
+      </c>
+      <c r="J708" s="35" t="s">
         <v>1876</v>
       </c>
-      <c r="J708" s="35" t="s">
-        <v>1877</v>
-      </c>
       <c r="K708" s="84" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="M708" s="35">
         <v>-31</v>
@@ -60796,13 +60820,13 @@
         <v>0</v>
       </c>
       <c r="P708" s="84" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="Q708" s="35">
         <v>19800</v>
       </c>
       <c r="X708" s="84" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="Y708" s="35">
         <v>99999999</v>
@@ -60817,13 +60841,13 @@
         <v>14</v>
       </c>
       <c r="AC708" s="84" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="AD708" s="84" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="AE708" s="85" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="AI708" s="35">
         <v>1</v>
@@ -60852,13 +60876,13 @@
         <v>176</v>
       </c>
       <c r="H709" s="112" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="J709" s="99" t="s">
         <v>1538</v>
       </c>
       <c r="K709" s="99" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="M709" s="99">
         <v>-31</v>
@@ -60870,19 +60894,19 @@
         <v>0</v>
       </c>
       <c r="P709" s="99" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="Q709" s="99">
         <v>600</v>
       </c>
       <c r="R709" s="99" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="S709" s="88" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="X709" s="99" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="Y709" s="99">
         <v>99999999</v>
@@ -60927,7 +60951,7 @@
         <v>1538</v>
       </c>
       <c r="K710" s="99" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="M710" s="99">
         <v>-31</v>
@@ -60939,19 +60963,19 @@
         <v>0</v>
       </c>
       <c r="P710" s="99" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="Q710" s="99">
         <v>1000</v>
       </c>
       <c r="R710" s="99" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="S710" s="88" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="X710" s="99" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="Y710" s="99">
         <v>99999999</v>
@@ -60996,7 +61020,7 @@
         <v>1538</v>
       </c>
       <c r="K711" s="99" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="M711" s="99">
         <v>-31</v>
@@ -61008,16 +61032,16 @@
         <v>0</v>
       </c>
       <c r="P711" s="99" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="Q711" s="99">
         <v>1800</v>
       </c>
       <c r="R711" s="99" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="S711" s="88" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="X711" s="99" t="s">
         <v>478</v>
@@ -61065,7 +61089,7 @@
         <v>1538</v>
       </c>
       <c r="K712" s="99" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="M712" s="99">
         <v>-31</v>
@@ -61077,16 +61101,16 @@
         <v>0</v>
       </c>
       <c r="P712" s="99" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="Q712" s="99">
         <v>3400</v>
       </c>
       <c r="R712" s="99" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="S712" s="88" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="X712" s="99" t="s">
         <v>478</v>
@@ -61134,7 +61158,7 @@
         <v>1545</v>
       </c>
       <c r="K713" s="99" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="M713" s="99">
         <v>-31</v>
@@ -61146,16 +61170,16 @@
         <v>0</v>
       </c>
       <c r="P713" s="99" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="Q713" s="99">
         <v>1800</v>
       </c>
       <c r="R713" s="99" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="S713" s="88" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="X713" s="99" t="s">
         <v>478</v>
@@ -61203,7 +61227,7 @@
         <v>1545</v>
       </c>
       <c r="K714" s="99" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="M714" s="99">
         <v>-31</v>
@@ -61215,16 +61239,16 @@
         <v>0</v>
       </c>
       <c r="P714" s="99" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="Q714" s="99">
         <v>3000</v>
       </c>
       <c r="R714" s="99" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="S714" s="88" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="X714" s="99" t="s">
         <v>478</v>
@@ -61272,7 +61296,7 @@
         <v>1545</v>
       </c>
       <c r="K715" s="99" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="M715" s="99">
         <v>-31</v>
@@ -61284,16 +61308,16 @@
         <v>0</v>
       </c>
       <c r="P715" s="99" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="Q715" s="99">
         <v>4800</v>
       </c>
       <c r="R715" s="99" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="S715" s="88" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="X715" s="99" t="s">
         <v>478</v>
@@ -61341,7 +61365,7 @@
         <v>1545</v>
       </c>
       <c r="K716" s="99" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="M716" s="99">
         <v>-31</v>
@@ -61353,16 +61377,16 @@
         <v>0</v>
       </c>
       <c r="P716" s="99" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="Q716" s="99">
         <v>9600</v>
       </c>
       <c r="R716" s="99" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="S716" s="88" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="X716" s="99" t="s">
         <v>478</v>
@@ -61410,7 +61434,7 @@
         <v>1552</v>
       </c>
       <c r="K717" s="99" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="M717" s="99">
         <v>-31</v>
@@ -61422,16 +61446,16 @@
         <v>0</v>
       </c>
       <c r="P717" s="99" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="Q717" s="99">
         <v>4800</v>
       </c>
       <c r="R717" s="99" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="S717" s="88" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="X717" s="99" t="s">
         <v>478</v>
@@ -61479,7 +61503,7 @@
         <v>1552</v>
       </c>
       <c r="K718" s="99" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="M718" s="99">
         <v>-31</v>
@@ -61491,16 +61515,16 @@
         <v>0</v>
       </c>
       <c r="P718" s="99" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="Q718" s="99">
         <v>9800</v>
       </c>
       <c r="R718" s="99" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="S718" s="88" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="X718" s="99" t="s">
         <v>478</v>
@@ -61548,7 +61572,7 @@
         <v>1552</v>
       </c>
       <c r="K719" s="99" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="M719" s="99">
         <v>-31</v>
@@ -61560,16 +61584,16 @@
         <v>0</v>
       </c>
       <c r="P719" s="99" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="Q719" s="99">
         <v>19800</v>
       </c>
       <c r="R719" s="99" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="S719" s="88" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="X719" s="99" t="s">
         <v>478</v>
@@ -61617,7 +61641,7 @@
         <v>1552</v>
       </c>
       <c r="K720" s="99" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="M720" s="99">
         <v>-31</v>
@@ -61629,16 +61653,16 @@
         <v>0</v>
       </c>
       <c r="P720" s="99" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="Q720" s="99">
         <v>34400</v>
       </c>
       <c r="R720" s="99" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="S720" s="88" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="X720" s="99" t="s">
         <v>478</v>
@@ -61686,7 +61710,7 @@
         <v>1441</v>
       </c>
       <c r="K721" s="99" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="M721" s="99">
         <v>-31</v>
@@ -61698,16 +61722,16 @@
         <v>0</v>
       </c>
       <c r="P721" s="99" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="Q721" s="99">
         <v>9800</v>
       </c>
       <c r="R721" s="99" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="S721" s="88" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="X721" s="99" t="s">
         <v>478</v>
@@ -61755,7 +61779,7 @@
         <v>1441</v>
       </c>
       <c r="K722" s="99" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="M722" s="99">
         <v>-31</v>
@@ -61767,16 +61791,16 @@
         <v>0</v>
       </c>
       <c r="P722" s="99" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="Q722" s="99">
         <v>19800</v>
       </c>
       <c r="R722" s="99" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="S722" s="88" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="X722" s="99" t="s">
         <v>478</v>
@@ -61824,7 +61848,7 @@
         <v>1441</v>
       </c>
       <c r="K723" s="99" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="M723" s="99">
         <v>-31</v>
@@ -61836,16 +61860,16 @@
         <v>0</v>
       </c>
       <c r="P723" s="99" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="Q723" s="99">
         <v>49800</v>
       </c>
       <c r="R723" s="99" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="S723" s="88" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="X723" s="99" t="s">
         <v>478</v>
@@ -61893,7 +61917,7 @@
         <v>1441</v>
       </c>
       <c r="K724" s="99" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="M724" s="99">
         <v>-31</v>
@@ -61905,19 +61929,19 @@
         <v>0</v>
       </c>
       <c r="P724" s="99" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="Q724" s="99">
         <v>79400</v>
       </c>
       <c r="R724" s="100" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="S724" s="88" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="X724" s="99" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="Y724" s="99">
         <v>99999999</v>
@@ -61955,7 +61979,7 @@
         <v>1</v>
       </c>
       <c r="G725" s="35" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="M725" s="35">
         <v>-31</v>
@@ -61967,13 +61991,13 @@
         <v>0</v>
       </c>
       <c r="P725" s="35" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="Q725" s="35">
         <v>3000</v>
       </c>
       <c r="X725" s="35" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="Y725" s="35">
         <v>99999999</v>
@@ -62011,16 +62035,16 @@
         <v>1</v>
       </c>
       <c r="G726" s="35" t="s">
+        <v>1954</v>
+      </c>
+      <c r="H726" s="113" t="s">
         <v>1955</v>
-      </c>
-      <c r="H726" s="113" t="s">
-        <v>1956</v>
       </c>
       <c r="J726" s="21" t="s">
         <v>1545</v>
       </c>
       <c r="K726" s="35" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="M726" s="35">
         <v>-31</v>
@@ -62032,19 +62056,19 @@
         <v>0</v>
       </c>
       <c r="P726" s="35" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="Q726" s="35">
         <v>1800</v>
       </c>
       <c r="R726" s="35" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="S726" s="36" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="X726" s="35" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="Y726" s="35">
         <v>99999999</v>
@@ -62082,14 +62106,14 @@
         <v>1</v>
       </c>
       <c r="G727" s="35" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="H727" s="113"/>
       <c r="J727" s="21" t="s">
         <v>1545</v>
       </c>
       <c r="K727" s="35" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="M727" s="35">
         <v>-31</v>
@@ -62101,19 +62125,19 @@
         <v>0</v>
       </c>
       <c r="P727" s="35" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="Q727" s="35">
         <v>3000</v>
       </c>
       <c r="R727" s="35" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="S727" s="36" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="X727" s="35" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="Y727" s="35">
         <v>99999999</v>
@@ -62151,14 +62175,14 @@
         <v>1</v>
       </c>
       <c r="G728" s="35" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="H728" s="113"/>
       <c r="J728" s="21" t="s">
         <v>1545</v>
       </c>
       <c r="K728" s="35" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="M728" s="35">
         <v>-31</v>
@@ -62170,16 +62194,16 @@
         <v>0</v>
       </c>
       <c r="P728" s="35" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="Q728" s="35">
         <v>4800</v>
       </c>
       <c r="R728" s="35" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="S728" s="36" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="X728" s="35" t="s">
         <v>478</v>
@@ -62220,14 +62244,14 @@
         <v>1</v>
       </c>
       <c r="G729" s="35" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="H729" s="113"/>
       <c r="J729" s="21" t="s">
         <v>1545</v>
       </c>
       <c r="K729" s="35" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="M729" s="35">
         <v>-31</v>
@@ -62239,16 +62263,16 @@
         <v>0</v>
       </c>
       <c r="P729" s="35" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="Q729" s="35">
         <v>9600</v>
       </c>
       <c r="R729" s="35" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="S729" s="36" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="X729" s="35" t="s">
         <v>478</v>
@@ -62289,14 +62313,14 @@
         <v>1</v>
       </c>
       <c r="G730" s="35" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="H730" s="113"/>
       <c r="J730" s="21" t="s">
         <v>1552</v>
       </c>
       <c r="K730" s="35" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="M730" s="35">
         <v>-31</v>
@@ -62308,16 +62332,16 @@
         <v>0</v>
       </c>
       <c r="P730" s="35" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="Q730" s="35">
         <v>4800</v>
       </c>
       <c r="R730" s="35" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="S730" s="36" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="X730" s="35" t="s">
         <v>478</v>
@@ -62358,14 +62382,14 @@
         <v>1</v>
       </c>
       <c r="G731" s="35" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="H731" s="113"/>
       <c r="J731" s="21" t="s">
         <v>1552</v>
       </c>
       <c r="K731" s="35" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="M731" s="35">
         <v>-31</v>
@@ -62377,16 +62401,16 @@
         <v>0</v>
       </c>
       <c r="P731" s="35" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="Q731" s="35">
         <v>9800</v>
       </c>
       <c r="R731" s="35" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="S731" s="36" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="X731" s="35" t="s">
         <v>478</v>
@@ -62427,14 +62451,14 @@
         <v>1</v>
       </c>
       <c r="G732" s="35" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="H732" s="113"/>
       <c r="J732" s="21" t="s">
         <v>1552</v>
       </c>
       <c r="K732" s="35" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="M732" s="35">
         <v>-31</v>
@@ -62446,16 +62470,16 @@
         <v>0</v>
       </c>
       <c r="P732" s="35" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="Q732" s="35">
         <v>19800</v>
       </c>
       <c r="R732" s="35" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="S732" s="36" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="X732" s="35" t="s">
         <v>478</v>
@@ -62496,14 +62520,14 @@
         <v>1</v>
       </c>
       <c r="G733" s="35" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="H733" s="113"/>
       <c r="J733" s="21" t="s">
         <v>1552</v>
       </c>
       <c r="K733" s="35" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="M733" s="35">
         <v>-31</v>
@@ -62515,16 +62539,16 @@
         <v>0</v>
       </c>
       <c r="P733" s="35" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="Q733" s="35">
         <v>34400</v>
       </c>
       <c r="R733" s="35" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="S733" s="36" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="X733" s="35" t="s">
         <v>478</v>
@@ -62565,14 +62589,14 @@
         <v>1</v>
       </c>
       <c r="G734" s="35" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="H734" s="113"/>
       <c r="J734" s="21" t="s">
         <v>1441</v>
       </c>
       <c r="K734" s="35" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="M734" s="35">
         <v>-31</v>
@@ -62584,16 +62608,16 @@
         <v>0</v>
       </c>
       <c r="P734" s="35" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="Q734" s="35">
         <v>9800</v>
       </c>
       <c r="R734" s="35" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="S734" s="36" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="X734" s="35" t="s">
         <v>478</v>
@@ -62634,14 +62658,14 @@
         <v>1</v>
       </c>
       <c r="G735" s="35" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="H735" s="113"/>
       <c r="J735" s="21" t="s">
         <v>1441</v>
       </c>
       <c r="K735" s="35" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="M735" s="35">
         <v>-31</v>
@@ -62653,16 +62677,16 @@
         <v>0</v>
       </c>
       <c r="P735" s="35" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="Q735" s="35">
         <v>19800</v>
       </c>
       <c r="R735" s="35" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="S735" s="36" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="X735" s="35" t="s">
         <v>478</v>
@@ -62703,14 +62727,14 @@
         <v>1</v>
       </c>
       <c r="G736" s="35" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="H736" s="113"/>
       <c r="J736" s="21" t="s">
         <v>1441</v>
       </c>
       <c r="K736" s="35" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="M736" s="35">
         <v>-31</v>
@@ -62722,16 +62746,16 @@
         <v>0</v>
       </c>
       <c r="P736" s="35" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="Q736" s="35">
         <v>49800</v>
       </c>
       <c r="R736" s="35" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="S736" s="36" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="X736" s="35" t="s">
         <v>478</v>
@@ -62772,14 +62796,14 @@
         <v>1</v>
       </c>
       <c r="G737" s="35" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="H737" s="113"/>
       <c r="J737" s="21" t="s">
         <v>1441</v>
       </c>
       <c r="K737" s="35" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="M737" s="35">
         <v>-31</v>
@@ -62791,16 +62815,16 @@
         <v>0</v>
       </c>
       <c r="P737" s="35" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="Q737" s="35">
         <v>79400</v>
       </c>
       <c r="R737" s="35" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="S737" s="36" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="X737" s="35" t="s">
         <v>478</v>
@@ -62841,16 +62865,16 @@
         <v>1</v>
       </c>
       <c r="G738" s="104" t="s">
+        <v>1993</v>
+      </c>
+      <c r="H738" s="112" t="s">
         <v>1994</v>
-      </c>
-      <c r="H738" s="112" t="s">
-        <v>1995</v>
       </c>
       <c r="J738" s="104" t="s">
         <v>1538</v>
       </c>
       <c r="K738" s="104" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="M738" s="104">
         <v>-31</v>
@@ -62868,10 +62892,10 @@
         <v>600</v>
       </c>
       <c r="R738" s="104" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="S738" s="88" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="X738" s="104" t="s">
         <v>478</v>
@@ -62912,14 +62936,14 @@
         <v>1</v>
       </c>
       <c r="G739" s="104" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="H739" s="112"/>
       <c r="J739" s="104" t="s">
         <v>1538</v>
       </c>
       <c r="K739" s="104" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="M739" s="104">
         <v>-31</v>
@@ -62937,10 +62961,10 @@
         <v>1000</v>
       </c>
       <c r="R739" s="104" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="S739" s="88" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="X739" s="104" t="s">
         <v>478</v>
@@ -62981,14 +63005,14 @@
         <v>1</v>
       </c>
       <c r="G740" s="104" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="H740" s="112"/>
       <c r="J740" s="104" t="s">
         <v>1538</v>
       </c>
       <c r="K740" s="104" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="M740" s="104">
         <v>-31</v>
@@ -63006,10 +63030,10 @@
         <v>1800</v>
       </c>
       <c r="R740" s="104" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="S740" s="88" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="X740" s="104" t="s">
         <v>478</v>
@@ -63050,14 +63074,14 @@
         <v>1</v>
       </c>
       <c r="G741" s="104" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="H741" s="112"/>
       <c r="J741" s="104" t="s">
         <v>1545</v>
       </c>
       <c r="K741" s="104" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="M741" s="104">
         <v>-31</v>
@@ -63075,10 +63099,10 @@
         <v>1800</v>
       </c>
       <c r="R741" s="104" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="S741" s="88" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="X741" s="104" t="s">
         <v>478</v>
@@ -63119,14 +63143,14 @@
         <v>1</v>
       </c>
       <c r="G742" s="104" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="H742" s="112"/>
       <c r="J742" s="104" t="s">
         <v>1545</v>
       </c>
       <c r="K742" s="104" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="M742" s="104">
         <v>-31</v>
@@ -63144,10 +63168,10 @@
         <v>3000</v>
       </c>
       <c r="R742" s="104" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="S742" s="88" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="X742" s="104" t="s">
         <v>478</v>
@@ -63188,14 +63212,14 @@
         <v>1</v>
       </c>
       <c r="G743" s="104" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="H743" s="112"/>
       <c r="J743" s="104" t="s">
         <v>1545</v>
       </c>
       <c r="K743" s="104" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="M743" s="104">
         <v>-31</v>
@@ -63213,10 +63237,10 @@
         <v>4800</v>
       </c>
       <c r="R743" s="104" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="S743" s="88" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="X743" s="104" t="s">
         <v>478</v>
@@ -63257,14 +63281,14 @@
         <v>1</v>
       </c>
       <c r="G744" s="104" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="H744" s="112"/>
       <c r="J744" s="104" t="s">
         <v>1552</v>
       </c>
       <c r="K744" s="104" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="M744" s="104">
         <v>-31</v>
@@ -63282,10 +63306,10 @@
         <v>4800</v>
       </c>
       <c r="R744" s="104" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="S744" s="88" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="X744" s="104" t="s">
         <v>478</v>
@@ -63326,14 +63350,14 @@
         <v>1</v>
       </c>
       <c r="G745" s="104" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="H745" s="112"/>
       <c r="J745" s="104" t="s">
         <v>1552</v>
       </c>
       <c r="K745" s="104" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="M745" s="104">
         <v>-31</v>
@@ -63351,10 +63375,10 @@
         <v>9800</v>
       </c>
       <c r="R745" s="104" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="S745" s="88" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="X745" s="104" t="s">
         <v>478</v>
@@ -63395,14 +63419,14 @@
         <v>1</v>
       </c>
       <c r="G746" s="104" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="H746" s="112"/>
       <c r="J746" s="104" t="s">
         <v>1552</v>
       </c>
       <c r="K746" s="104" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="M746" s="104">
         <v>-31</v>
@@ -63420,10 +63444,10 @@
         <v>19800</v>
       </c>
       <c r="R746" s="104" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="S746" s="88" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="X746" s="104" t="s">
         <v>478</v>
@@ -63464,14 +63488,14 @@
         <v>1</v>
       </c>
       <c r="G747" s="104" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="H747" s="112"/>
       <c r="J747" s="104" t="s">
         <v>1441</v>
       </c>
       <c r="K747" s="104" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="M747" s="104">
         <v>-31</v>
@@ -63489,10 +63513,10 @@
         <v>9800</v>
       </c>
       <c r="R747" s="104" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="S747" s="88" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="X747" s="104" t="s">
         <v>478</v>
@@ -63533,14 +63557,14 @@
         <v>1</v>
       </c>
       <c r="G748" s="104" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="H748" s="112"/>
       <c r="J748" s="104" t="s">
         <v>1441</v>
       </c>
       <c r="K748" s="104" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="M748" s="104">
         <v>-31</v>
@@ -63558,10 +63582,10 @@
         <v>19800</v>
       </c>
       <c r="R748" s="104" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="S748" s="88" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="X748" s="104" t="s">
         <v>478</v>
@@ -63602,14 +63626,14 @@
         <v>1</v>
       </c>
       <c r="G749" s="104" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="H749" s="112"/>
       <c r="J749" s="104" t="s">
         <v>1441</v>
       </c>
       <c r="K749" s="104" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="M749" s="104">
         <v>-31</v>
@@ -63627,10 +63651,10 @@
         <v>49800</v>
       </c>
       <c r="R749" s="104" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="S749" s="88" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="X749" s="104" t="s">
         <v>478</v>
@@ -63671,10 +63695,10 @@
         <v>1</v>
       </c>
       <c r="G750" s="35" t="s">
+        <v>2022</v>
+      </c>
+      <c r="K750" s="35" t="s">
         <v>2023</v>
-      </c>
-      <c r="K750" s="35" t="s">
-        <v>2024</v>
       </c>
       <c r="M750" s="35">
         <v>-31</v>
@@ -63686,19 +63710,19 @@
         <v>0</v>
       </c>
       <c r="P750" s="35" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="Q750" s="35">
         <v>9800</v>
       </c>
       <c r="R750" s="35" t="s">
+        <v>2025</v>
+      </c>
+      <c r="S750" s="36" t="s">
         <v>2026</v>
       </c>
-      <c r="S750" s="36" t="s">
+      <c r="X750" s="35" t="s">
         <v>2027</v>
-      </c>
-      <c r="X750" s="35" t="s">
-        <v>2028</v>
       </c>
       <c r="Y750" s="35">
         <v>99999999</v>
@@ -63736,13 +63760,13 @@
         <v>1</v>
       </c>
       <c r="G751" s="35" t="s">
+        <v>2028</v>
+      </c>
+      <c r="J751" s="35" t="s">
         <v>2029</v>
       </c>
-      <c r="J751" s="35" t="s">
+      <c r="K751" s="35" t="s">
         <v>2030</v>
-      </c>
-      <c r="K751" s="35" t="s">
-        <v>2031</v>
       </c>
       <c r="M751" s="35">
         <v>-31</v>
@@ -63754,19 +63778,19 @@
         <v>0</v>
       </c>
       <c r="P751" s="35" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="Q751" s="35">
         <v>4800</v>
       </c>
       <c r="R751" s="35" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="S751" s="36" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="X751" s="35" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="Y751" s="35">
         <v>99999999</v>
@@ -63804,13 +63828,13 @@
         <v>1</v>
       </c>
       <c r="G752" s="35" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="J752" s="35" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="K752" s="35" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="M752" s="35">
         <v>-31</v>
@@ -63822,19 +63846,19 @@
         <v>0</v>
       </c>
       <c r="P752" s="35" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="Q752" s="35">
         <v>9800</v>
       </c>
       <c r="R752" s="35" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="S752" s="36" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="X752" s="35" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="Y752" s="35">
         <v>99999999</v>
@@ -63872,13 +63896,13 @@
         <v>1</v>
       </c>
       <c r="G753" s="35" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="J753" s="35" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="K753" s="35" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="M753" s="35">
         <v>-31</v>
@@ -63890,19 +63914,19 @@
         <v>0</v>
       </c>
       <c r="P753" s="35" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="Q753" s="35">
         <v>19800</v>
       </c>
       <c r="R753" s="35" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="S753" s="36" t="s">
+        <v>2042</v>
+      </c>
+      <c r="X753" s="35" t="s">
         <v>2043</v>
-      </c>
-      <c r="X753" s="35" t="s">
-        <v>2044</v>
       </c>
       <c r="Y753" s="35">
         <v>99999999</v>
@@ -63940,13 +63964,13 @@
         <v>1</v>
       </c>
       <c r="G754" s="35" t="s">
+        <v>2047</v>
+      </c>
+      <c r="J754" s="35" t="s">
         <v>2048</v>
       </c>
-      <c r="J754" s="35" t="s">
-        <v>2049</v>
-      </c>
       <c r="K754" s="35" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="M754" s="35">
         <v>-31</v>
@@ -63964,13 +63988,13 @@
         <v>4800</v>
       </c>
       <c r="R754" s="35" t="s">
+        <v>2054</v>
+      </c>
+      <c r="S754" s="36" t="s">
         <v>2055</v>
       </c>
-      <c r="S754" s="36" t="s">
-        <v>2056</v>
-      </c>
       <c r="X754" s="35" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="Y754" s="35">
         <v>99999999</v>
@@ -64005,13 +64029,13 @@
         <v>1</v>
       </c>
       <c r="G755" s="35" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="J755" s="35" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="K755" s="35" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="M755" s="35">
         <v>-31</v>
@@ -64029,13 +64053,13 @@
         <v>9800</v>
       </c>
       <c r="R755" s="35" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="S755" s="36" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="X755" s="35" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="Y755" s="35">
         <v>99999999</v>
@@ -64070,13 +64094,13 @@
         <v>1</v>
       </c>
       <c r="G756" s="35" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="J756" s="35" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="K756" s="35" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="M756" s="35">
         <v>-31</v>
@@ -64094,13 +64118,13 @@
         <v>49800</v>
       </c>
       <c r="R756" s="35" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="S756" s="36" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="X756" s="35" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="Y756" s="35">
         <v>99999999</v>
@@ -64135,13 +64159,13 @@
         <v>1</v>
       </c>
       <c r="G757" s="35" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="J757" s="35" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="K757" s="35" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="M757" s="35">
         <v>-31</v>
@@ -64159,7 +64183,7 @@
         <v>1000</v>
       </c>
       <c r="X757" s="35" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="Y757" s="35">
         <v>99999999</v>
@@ -64174,13 +64198,13 @@
         <v>92</v>
       </c>
       <c r="AC757" s="35" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="AD757" s="35" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="AE757" s="106" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="AI757" s="35">
         <v>1</v>
@@ -64206,13 +64230,13 @@
         <v>1</v>
       </c>
       <c r="G758" s="35" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="J758" s="35" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="K758" s="35" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="M758" s="35">
         <v>-31</v>
@@ -64224,13 +64248,13 @@
         <v>0</v>
       </c>
       <c r="P758" s="35" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="Q758" s="35">
         <v>5000</v>
       </c>
       <c r="X758" s="35" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="Y758" s="35">
         <v>99999999</v>
@@ -64245,13 +64269,13 @@
         <v>93</v>
       </c>
       <c r="AC758" s="35" t="s">
+        <v>2098</v>
+      </c>
+      <c r="AD758" s="35" t="s">
+        <v>2080</v>
+      </c>
+      <c r="AE758" s="106" t="s">
         <v>2099</v>
-      </c>
-      <c r="AD758" s="35" t="s">
-        <v>2081</v>
-      </c>
-      <c r="AE758" s="106" t="s">
-        <v>2100</v>
       </c>
       <c r="AI758" s="35">
         <v>1</v>
@@ -64277,13 +64301,13 @@
         <v>1</v>
       </c>
       <c r="G759" s="35" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="J759" s="35" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="K759" s="35" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="M759" s="35">
         <v>-31</v>
@@ -64301,7 +64325,7 @@
         <v>9800</v>
       </c>
       <c r="X759" s="35" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="Y759" s="35">
         <v>99999999</v>
@@ -64316,13 +64340,13 @@
         <v>94</v>
       </c>
       <c r="AC759" s="35" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="AD759" s="35" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="AE759" s="106" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="AI759" s="35">
         <v>1</v>
@@ -64348,13 +64372,13 @@
         <v>1</v>
       </c>
       <c r="G760" s="35" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="J760" s="35" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="K760" s="35" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="M760" s="35">
         <v>-31</v>
@@ -64366,13 +64390,13 @@
         <v>0</v>
       </c>
       <c r="P760" s="35" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="Q760" s="35">
         <v>19800</v>
       </c>
       <c r="X760" s="35" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="Y760" s="35">
         <v>99999999</v>
@@ -64387,13 +64411,13 @@
         <v>95</v>
       </c>
       <c r="AC760" s="35" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="AD760" s="35" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="AE760" s="106" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="AI760" s="35">
         <v>1</v>
@@ -64419,13 +64443,13 @@
         <v>1</v>
       </c>
       <c r="G761" s="35" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="J761" s="35" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="K761" s="35" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="M761" s="35">
         <v>-31</v>
@@ -64443,7 +64467,7 @@
         <v>5000</v>
       </c>
       <c r="X761" s="35" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="Y761" s="35">
         <v>99999999</v>
@@ -64458,13 +64482,13 @@
         <v>92</v>
       </c>
       <c r="AC761" s="35" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="AD761" s="35" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="AE761" s="106" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="AI761" s="35">
         <v>1</v>
@@ -64490,13 +64514,13 @@
         <v>1</v>
       </c>
       <c r="G762" s="35" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="J762" s="35" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="K762" s="35" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="M762" s="35">
         <v>-31</v>
@@ -64508,13 +64532,13 @@
         <v>0</v>
       </c>
       <c r="P762" s="35" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="Q762" s="35">
         <v>9800</v>
       </c>
       <c r="X762" s="35" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="Y762" s="35">
         <v>99999999</v>
@@ -64529,13 +64553,13 @@
         <v>93</v>
       </c>
       <c r="AC762" s="35" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="AD762" s="35" t="s">
+        <v>2107</v>
+      </c>
+      <c r="AE762" s="106" t="s">
         <v>2108</v>
-      </c>
-      <c r="AE762" s="106" t="s">
-        <v>2109</v>
       </c>
       <c r="AI762" s="35">
         <v>1</v>
@@ -64561,13 +64585,13 @@
         <v>1</v>
       </c>
       <c r="G763" s="35" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="J763" s="35" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="K763" s="35" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="M763" s="35">
         <v>-31</v>
@@ -64586,7 +64610,7 @@
       </c>
       <c r="R763" s="105"/>
       <c r="X763" s="35" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="Y763" s="35">
         <v>99999999</v>
@@ -64601,13 +64625,13 @@
         <v>94</v>
       </c>
       <c r="AC763" s="35" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="AD763" s="35" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="AE763" s="106" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="AI763" s="35">
         <v>1</v>
@@ -64633,13 +64657,13 @@
         <v>1</v>
       </c>
       <c r="G764" s="35" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="J764" s="35" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="K764" s="35" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="M764" s="35">
         <v>-31</v>
@@ -64651,14 +64675,14 @@
         <v>0</v>
       </c>
       <c r="P764" s="35" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="Q764" s="35">
         <v>29800</v>
       </c>
       <c r="R764" s="105"/>
       <c r="X764" s="35" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="Y764" s="35">
         <v>99999999</v>
@@ -64673,13 +64697,13 @@
         <v>95</v>
       </c>
       <c r="AC764" s="35" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="AD764" s="35" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="AE764" s="106" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="AI764" s="35">
         <v>1</v>
@@ -64705,13 +64729,13 @@
         <v>1</v>
       </c>
       <c r="G765" s="35" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="J765" s="35" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="K765" s="35" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="M765" s="35">
         <v>-31</v>
@@ -64723,13 +64747,13 @@
         <v>0</v>
       </c>
       <c r="P765" s="35" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="Q765" s="35">
         <v>9800</v>
       </c>
       <c r="X765" s="35" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="Y765" s="35">
         <v>99999999</v>
@@ -64744,13 +64768,13 @@
         <v>92</v>
       </c>
       <c r="AC765" s="35" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="AD765" s="35" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="AE765" s="106" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="AI765" s="35">
         <v>1</v>
@@ -64776,13 +64800,13 @@
         <v>1</v>
       </c>
       <c r="G766" s="35" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="J766" s="35" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="K766" s="35" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="M766" s="35">
         <v>-31</v>
@@ -64800,7 +64824,7 @@
         <v>9800</v>
       </c>
       <c r="X766" s="35" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="Y766" s="35">
         <v>99999999</v>
@@ -64815,13 +64839,13 @@
         <v>93</v>
       </c>
       <c r="AC766" s="35" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="AD766" s="35" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="AE766" s="106" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="AI766" s="35">
         <v>1</v>
@@ -64847,13 +64871,13 @@
         <v>1</v>
       </c>
       <c r="G767" s="35" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="J767" s="35" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="K767" s="35" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="M767" s="35">
         <v>-31</v>
@@ -64865,13 +64889,13 @@
         <v>0</v>
       </c>
       <c r="P767" s="35" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="Q767" s="35">
         <v>19800</v>
       </c>
       <c r="X767" s="35" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="Y767" s="35">
         <v>99999999</v>
@@ -64886,13 +64910,13 @@
         <v>94</v>
       </c>
       <c r="AC767" s="35" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="AD767" s="35" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="AE767" s="106" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="AI767" s="35">
         <v>1</v>
@@ -64918,13 +64942,13 @@
         <v>1</v>
       </c>
       <c r="G768" s="35" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="J768" s="35" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="K768" s="35" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="M768" s="35">
         <v>-31</v>
@@ -64942,7 +64966,7 @@
         <v>29800</v>
       </c>
       <c r="X768" s="35" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="Y768" s="35">
         <v>99999999</v>
@@ -64957,13 +64981,13 @@
         <v>95</v>
       </c>
       <c r="AC768" s="35" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="AD768" s="35" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="AE768" s="106" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="AI768" s="35">
         <v>1</v>
@@ -64989,13 +65013,13 @@
         <v>1</v>
       </c>
       <c r="G769" s="35" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="J769" s="35" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="K769" s="35" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="M769" s="35">
         <v>-31</v>
@@ -65013,7 +65037,7 @@
         <v>19800</v>
       </c>
       <c r="X769" s="35" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="Y769" s="35">
         <v>99999999</v>
@@ -65028,13 +65052,13 @@
         <v>92</v>
       </c>
       <c r="AC769" s="35" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="AD769" s="35" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="AE769" s="106" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="AI769" s="35">
         <v>1</v>
@@ -65060,13 +65084,13 @@
         <v>1</v>
       </c>
       <c r="G770" s="35" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="J770" s="35" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="K770" s="35" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="M770" s="35">
         <v>-31</v>
@@ -65078,13 +65102,13 @@
         <v>0</v>
       </c>
       <c r="P770" s="35" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="Q770" s="35">
         <v>19800</v>
       </c>
       <c r="X770" s="35" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="Y770" s="35">
         <v>99999999</v>
@@ -65099,13 +65123,13 @@
         <v>93</v>
       </c>
       <c r="AC770" s="35" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="AD770" s="35" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="AE770" s="106" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="AI770" s="35">
         <v>1</v>
@@ -65131,13 +65155,13 @@
         <v>1</v>
       </c>
       <c r="G771" s="35" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="J771" s="35" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="K771" s="35" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="M771" s="35">
         <v>-31</v>
@@ -65149,13 +65173,13 @@
         <v>0</v>
       </c>
       <c r="P771" s="35" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="Q771" s="35">
         <v>49800</v>
       </c>
       <c r="X771" s="35" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="Y771" s="35">
         <v>99999999</v>
@@ -65170,13 +65194,13 @@
         <v>94</v>
       </c>
       <c r="AC771" s="35" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="AD771" s="35" t="s">
+        <v>2124</v>
+      </c>
+      <c r="AE771" s="106" t="s">
         <v>2125</v>
-      </c>
-      <c r="AE771" s="106" t="s">
-        <v>2126</v>
       </c>
       <c r="AI771" s="35">
         <v>1</v>
@@ -65202,13 +65226,13 @@
         <v>1</v>
       </c>
       <c r="G772" s="35" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="J772" s="35" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="K772" s="35" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="M772" s="35">
         <v>-31</v>
@@ -65220,13 +65244,13 @@
         <v>0</v>
       </c>
       <c r="P772" s="35" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="Q772" s="35">
         <v>49800</v>
       </c>
       <c r="X772" s="35" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="Y772" s="35">
         <v>99999999</v>
@@ -65241,13 +65265,13 @@
         <v>95</v>
       </c>
       <c r="AC772" s="35" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="AD772" s="35" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="AE772" s="106" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="AI772" s="35">
         <v>1</v>
@@ -65273,13 +65297,13 @@
         <v>0</v>
       </c>
       <c r="G773" s="35" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="J773" s="108" t="s">
         <v>1538</v>
       </c>
       <c r="K773" s="35" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="M773" s="35">
         <v>-31</v>
@@ -65297,13 +65321,13 @@
         <v>600</v>
       </c>
       <c r="R773" s="35" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="S773" s="36" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="X773" s="35" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="Y773" s="35">
         <v>99999999</v>
@@ -65341,13 +65365,13 @@
         <v>0</v>
       </c>
       <c r="G774" s="35" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="J774" s="108" t="s">
         <v>1538</v>
       </c>
       <c r="K774" s="35" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="M774" s="35">
         <v>-31</v>
@@ -65365,13 +65389,13 @@
         <v>1000</v>
       </c>
       <c r="R774" s="35" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="S774" s="36" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="X774" s="35" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="Y774" s="35">
         <v>99999999</v>
@@ -65409,13 +65433,13 @@
         <v>0</v>
       </c>
       <c r="G775" s="35" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="J775" s="108" t="s">
         <v>1538</v>
       </c>
       <c r="K775" s="35" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="M775" s="35">
         <v>-31</v>
@@ -65433,10 +65457,10 @@
         <v>1800</v>
       </c>
       <c r="R775" s="35" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="S775" s="36" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="X775" s="35" t="s">
         <v>478</v>
@@ -65477,13 +65501,13 @@
         <v>0</v>
       </c>
       <c r="G776" s="35" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="J776" s="108" t="s">
         <v>1538</v>
       </c>
       <c r="K776" s="35" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="M776" s="35">
         <v>-31</v>
@@ -65501,10 +65525,10 @@
         <v>3400</v>
       </c>
       <c r="R776" s="35" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="S776" s="36" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="X776" s="35" t="s">
         <v>478</v>
@@ -65545,13 +65569,13 @@
         <v>0</v>
       </c>
       <c r="G777" s="35" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="J777" s="108" t="s">
         <v>1545</v>
       </c>
       <c r="K777" s="35" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="M777" s="35">
         <v>-31</v>
@@ -65569,10 +65593,10 @@
         <v>1800</v>
       </c>
       <c r="R777" s="35" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="S777" s="36" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="X777" s="35" t="s">
         <v>478</v>
@@ -65613,13 +65637,13 @@
         <v>0</v>
       </c>
       <c r="G778" s="35" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="J778" s="108" t="s">
         <v>1545</v>
       </c>
       <c r="K778" s="35" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="M778" s="35">
         <v>-31</v>
@@ -65637,10 +65661,10 @@
         <v>3000</v>
       </c>
       <c r="R778" s="35" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="S778" s="36" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="X778" s="35" t="s">
         <v>478</v>
@@ -65681,13 +65705,13 @@
         <v>0</v>
       </c>
       <c r="G779" s="35" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="J779" s="108" t="s">
         <v>1545</v>
       </c>
       <c r="K779" s="35" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="M779" s="35">
         <v>-31</v>
@@ -65705,10 +65729,10 @@
         <v>4800</v>
       </c>
       <c r="R779" s="35" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="S779" s="36" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="X779" s="35" t="s">
         <v>478</v>
@@ -65749,13 +65773,13 @@
         <v>0</v>
       </c>
       <c r="G780" s="35" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="J780" s="108" t="s">
         <v>1545</v>
       </c>
       <c r="K780" s="35" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="M780" s="35">
         <v>-31</v>
@@ -65773,10 +65797,10 @@
         <v>9600</v>
       </c>
       <c r="R780" s="35" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="S780" s="36" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="X780" s="35" t="s">
         <v>478</v>
@@ -65817,13 +65841,13 @@
         <v>0</v>
       </c>
       <c r="G781" s="35" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="J781" s="108" t="s">
         <v>1552</v>
       </c>
       <c r="K781" s="35" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="M781" s="35">
         <v>-31</v>
@@ -65841,10 +65865,10 @@
         <v>4800</v>
       </c>
       <c r="R781" s="35" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="S781" s="36" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="X781" s="35" t="s">
         <v>478</v>
@@ -65885,13 +65909,13 @@
         <v>0</v>
       </c>
       <c r="G782" s="35" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="J782" s="108" t="s">
         <v>1552</v>
       </c>
       <c r="K782" s="35" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="M782" s="35">
         <v>-31</v>
@@ -65909,10 +65933,10 @@
         <v>9800</v>
       </c>
       <c r="R782" s="35" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="S782" s="36" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="X782" s="35" t="s">
         <v>478</v>
@@ -65953,13 +65977,13 @@
         <v>0</v>
       </c>
       <c r="G783" s="35" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="J783" s="108" t="s">
         <v>1552</v>
       </c>
       <c r="K783" s="35" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="M783" s="35">
         <v>-31</v>
@@ -65977,10 +66001,10 @@
         <v>19800</v>
       </c>
       <c r="R783" s="35" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="S783" s="36" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="X783" s="35" t="s">
         <v>478</v>
@@ -66021,13 +66045,13 @@
         <v>0</v>
       </c>
       <c r="G784" s="35" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="J784" s="108" t="s">
         <v>1552</v>
       </c>
       <c r="K784" s="35" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="M784" s="35">
         <v>-31</v>
@@ -66045,10 +66069,10 @@
         <v>34400</v>
       </c>
       <c r="R784" s="35" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="S784" s="36" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="X784" s="35" t="s">
         <v>478</v>
@@ -66089,13 +66113,13 @@
         <v>0</v>
       </c>
       <c r="G785" s="35" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="J785" s="108" t="s">
         <v>1441</v>
       </c>
       <c r="K785" s="35" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="M785" s="35">
         <v>-31</v>
@@ -66113,10 +66137,10 @@
         <v>9800</v>
       </c>
       <c r="R785" s="35" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="S785" s="36" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="X785" s="35" t="s">
         <v>478</v>
@@ -66157,13 +66181,13 @@
         <v>0</v>
       </c>
       <c r="G786" s="35" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="J786" s="108" t="s">
         <v>1441</v>
       </c>
       <c r="K786" s="35" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="M786" s="35">
         <v>-31</v>
@@ -66181,10 +66205,10 @@
         <v>19800</v>
       </c>
       <c r="R786" s="35" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="S786" s="36" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="X786" s="35" t="s">
         <v>478</v>
@@ -66225,13 +66249,13 @@
         <v>0</v>
       </c>
       <c r="G787" s="35" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="J787" s="108" t="s">
         <v>1441</v>
       </c>
       <c r="K787" s="35" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="M787" s="35">
         <v>-31</v>
@@ -66249,10 +66273,10 @@
         <v>49800</v>
       </c>
       <c r="R787" s="35" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="S787" s="36" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="X787" s="35" t="s">
         <v>478</v>
@@ -66293,13 +66317,13 @@
         <v>0</v>
       </c>
       <c r="G788" s="35" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="J788" s="108" t="s">
         <v>1441</v>
       </c>
       <c r="K788" s="35" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="M788" s="35">
         <v>-31</v>
@@ -66317,10 +66341,10 @@
         <v>79400</v>
       </c>
       <c r="R788" s="35" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="S788" s="36" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="X788" s="35" t="s">
         <v>478</v>
@@ -66347,6 +66371,136 @@
         <v>1</v>
       </c>
       <c r="AN788" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="789" spans="1:40">
+      <c r="A789" s="21">
+        <v>788</v>
+      </c>
+      <c r="B789" s="35">
+        <v>10705</v>
+      </c>
+      <c r="F789" s="35">
+        <v>1</v>
+      </c>
+      <c r="G789" s="35" t="s">
+        <v>2169</v>
+      </c>
+      <c r="K789" s="35" t="s">
+        <v>2170</v>
+      </c>
+      <c r="M789" s="35">
+        <v>-31</v>
+      </c>
+      <c r="N789" s="35">
+        <v>0</v>
+      </c>
+      <c r="O789" s="35">
+        <v>0</v>
+      </c>
+      <c r="P789" s="35" t="s">
+        <v>1848</v>
+      </c>
+      <c r="Q789" s="35">
+        <v>19800</v>
+      </c>
+      <c r="R789" s="35" t="s">
+        <v>2171</v>
+      </c>
+      <c r="S789" s="36" t="s">
+        <v>2172</v>
+      </c>
+      <c r="X789" s="35" t="s">
+        <v>2174</v>
+      </c>
+      <c r="Y789" s="35">
+        <v>99999999</v>
+      </c>
+      <c r="Z789" s="35">
+        <v>1640649600</v>
+      </c>
+      <c r="AA789" s="35">
+        <v>1641225599</v>
+      </c>
+      <c r="AB789" s="35">
+        <v>96</v>
+      </c>
+      <c r="AI789" s="35">
+        <v>1</v>
+      </c>
+      <c r="AJ789" s="35">
+        <v>1</v>
+      </c>
+      <c r="AM789" s="35">
+        <v>1</v>
+      </c>
+      <c r="AN789" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="790" spans="1:40">
+      <c r="A790" s="21">
+        <v>789</v>
+      </c>
+      <c r="B790" s="35">
+        <v>10706</v>
+      </c>
+      <c r="F790" s="35">
+        <v>1</v>
+      </c>
+      <c r="G790" s="35" t="s">
+        <v>2169</v>
+      </c>
+      <c r="K790" s="35" t="s">
+        <v>2170</v>
+      </c>
+      <c r="M790" s="35">
+        <v>-31</v>
+      </c>
+      <c r="N790" s="35">
+        <v>0</v>
+      </c>
+      <c r="O790" s="35">
+        <v>0</v>
+      </c>
+      <c r="P790" s="35" t="s">
+        <v>1848</v>
+      </c>
+      <c r="Q790" s="35">
+        <v>40000</v>
+      </c>
+      <c r="R790" s="35" t="s">
+        <v>2171</v>
+      </c>
+      <c r="S790" s="36" t="s">
+        <v>2172</v>
+      </c>
+      <c r="X790" s="35" t="s">
+        <v>2174</v>
+      </c>
+      <c r="Y790" s="35">
+        <v>99999999</v>
+      </c>
+      <c r="Z790" s="35">
+        <v>1640649600</v>
+      </c>
+      <c r="AA790" s="35">
+        <v>1641225599</v>
+      </c>
+      <c r="AB790" s="35">
+        <v>96</v>
+      </c>
+      <c r="AI790" s="35">
+        <v>1</v>
+      </c>
+      <c r="AJ790" s="35">
+        <v>1</v>
+      </c>
+      <c r="AM790" s="35">
+        <v>1</v>
+      </c>
+      <c r="AN790" s="35">
         <v>1</v>
       </c>
     </row>
@@ -66372,10 +66526,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F96"/>
+  <dimension ref="A1:F97"/>
   <sheetViews>
     <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+      <selection activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -67360,7 +67514,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="C69" s="2">
         <v>1</v>
@@ -67374,7 +67528,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="92" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="C70" s="2">
         <v>1</v>
@@ -67514,7 +67668,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="102" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="C80" s="2">
         <v>1</v>
@@ -67528,7 +67682,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="25" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="C81" s="2">
         <v>1</v>
@@ -67584,7 +67738,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="87" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -67598,7 +67752,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="87" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -67612,7 +67766,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="103" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -67626,7 +67780,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="103" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -67640,7 +67794,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="103" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -67654,7 +67808,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="103" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -67668,7 +67822,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="103" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -67682,7 +67836,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="103" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -67696,7 +67850,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="103" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -67710,7 +67864,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="103" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -67724,7 +67878,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="103" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -67738,13 +67892,21 @@
         <v>95</v>
       </c>
       <c r="B96" s="103" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="C96">
         <v>1</v>
       </c>
       <c r="D96">
         <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" s="103" t="s">
+        <v>2175</v>
       </c>
     </row>
   </sheetData>

--- a/config_12.28/shoping_config.xlsx
+++ b/config_12.28/shoping_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6172" uniqueCount="2176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6178" uniqueCount="2181">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -8439,6 +8439,25 @@
   </si>
   <si>
     <t>{type="permission_class",class_value = "xnfl_1228_canshop" }</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>shopping_center_can_show_v6</t>
+  </si>
+  <si>
+    <t>condi_key|限时权限</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>shopping_center_can_show_v6</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>shopping_center_can_show_v6</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>condi_key|显示权限</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -9514,10 +9533,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH883"/>
+  <dimension ref="A1:AI883"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AI16" sqref="AI16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -9548,10 +9567,11 @@
     <col min="30" max="30" width="13" style="14" customWidth="1"/>
     <col min="31" max="32" width="12.125" style="14" customWidth="1"/>
     <col min="33" max="34" width="21.375" style="14" customWidth="1"/>
-    <col min="35" max="16384" width="8.75" style="14"/>
+    <col min="35" max="35" width="36.375" style="14" customWidth="1"/>
+    <col min="36" max="16384" width="8.75" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="1" customFormat="1" ht="90" customHeight="1">
+    <row r="1" spans="1:35" s="1" customFormat="1" ht="90" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9654,8 +9674,11 @@
       <c r="AH1" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="2" spans="1:34">
+      <c r="AI1" s="1" t="s">
+        <v>2180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -9739,7 +9762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -9823,7 +9846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -9907,7 +9930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -9993,7 +10016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -10079,7 +10102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:35">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -10165,7 +10188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -10249,7 +10272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -10334,8 +10357,11 @@
       <c r="AF9" s="14">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:34" s="12" customFormat="1">
+      <c r="AI9" s="14" t="s">
+        <v>2178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" s="12" customFormat="1">
       <c r="A10" s="12">
         <v>9</v>
       </c>
@@ -10421,8 +10447,11 @@
       <c r="AF10" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:34" s="12" customFormat="1">
+      <c r="AI10" s="14" t="s">
+        <v>2176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" s="12" customFormat="1">
       <c r="A11" s="12">
         <v>10</v>
       </c>
@@ -10508,7 +10537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:34" s="12" customFormat="1">
+    <row r="12" spans="1:35" s="12" customFormat="1">
       <c r="A12" s="12">
         <v>11</v>
       </c>
@@ -10588,7 +10617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:34" s="12" customFormat="1">
+    <row r="13" spans="1:35" s="12" customFormat="1">
       <c r="A13" s="12">
         <v>12</v>
       </c>
@@ -10668,7 +10697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:34" s="12" customFormat="1">
+    <row r="14" spans="1:35" s="12" customFormat="1">
       <c r="A14" s="12">
         <v>13</v>
       </c>
@@ -10748,7 +10777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:34" s="12" customFormat="1">
+    <row r="15" spans="1:35" s="12" customFormat="1">
       <c r="A15" s="12">
         <v>14</v>
       </c>
@@ -10828,7 +10857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:34" s="12" customFormat="1">
+    <row r="16" spans="1:35" s="12" customFormat="1">
       <c r="A16" s="12">
         <v>15</v>
       </c>
@@ -14947,11 +14976,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO790"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="X779" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Y796" sqref="Y796"/>
+      <selection pane="bottomRight" activeCell="Y789" sqref="Y789"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -66415,7 +66444,7 @@
         <v>2174</v>
       </c>
       <c r="Y789" s="35">
-        <v>99999999</v>
+        <v>200</v>
       </c>
       <c r="Z789" s="35">
         <v>1640649600</v>
@@ -67918,10 +67947,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD27"/>
+  <dimension ref="A1:AE27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="AE14" sqref="AE14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -67948,10 +67977,11 @@
     <col min="26" max="27" width="12.125" style="14" customWidth="1"/>
     <col min="28" max="29" width="21.375" style="14" customWidth="1"/>
     <col min="30" max="30" width="42.875" style="14" customWidth="1"/>
-    <col min="31" max="16384" width="8.75" style="14"/>
+    <col min="31" max="31" width="25.75" style="14" customWidth="1"/>
+    <col min="32" max="16384" width="8.75" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="1" customFormat="1" ht="90" customHeight="1">
+    <row r="1" spans="1:31" s="1" customFormat="1" ht="90" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>1731</v>
       </c>
@@ -68042,8 +68072,11 @@
       <c r="AD1" s="1" t="s">
         <v>1738</v>
       </c>
-    </row>
-    <row r="2" spans="1:30" s="12" customFormat="1">
+      <c r="AE1" s="1" t="s">
+        <v>2177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" s="12" customFormat="1">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -68111,7 +68144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:30" s="12" customFormat="1">
+    <row r="3" spans="1:31" s="12" customFormat="1">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -68182,7 +68215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:30" s="12" customFormat="1">
+    <row r="4" spans="1:31" s="12" customFormat="1">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -68253,7 +68286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30" s="12" customFormat="1">
+    <row r="5" spans="1:31" s="12" customFormat="1">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -68324,7 +68357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:30" s="12" customFormat="1">
+    <row r="6" spans="1:31" s="12" customFormat="1">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -68395,7 +68428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" s="12" customFormat="1">
+    <row r="7" spans="1:31" s="12" customFormat="1">
       <c r="A7" s="12">
         <v>6</v>
       </c>
@@ -68466,7 +68499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:30" s="12" customFormat="1">
+    <row r="8" spans="1:31" s="12" customFormat="1">
       <c r="A8" s="12">
         <v>7</v>
       </c>
@@ -68532,7 +68565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:30" s="12" customFormat="1">
+    <row r="9" spans="1:31" s="12" customFormat="1">
       <c r="A9" s="12">
         <v>8</v>
       </c>
@@ -68598,7 +68631,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="10" spans="1:30" s="12" customFormat="1">
+    <row r="10" spans="1:31" s="12" customFormat="1">
       <c r="A10" s="12">
         <v>9</v>
       </c>
@@ -68664,7 +68697,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="11" spans="1:30" s="12" customFormat="1">
+    <row r="11" spans="1:31" s="12" customFormat="1">
       <c r="A11" s="12">
         <v>10</v>
       </c>
@@ -68730,7 +68763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:30" s="12" customFormat="1">
+    <row r="12" spans="1:31" s="12" customFormat="1">
       <c r="A12" s="12">
         <v>11</v>
       </c>
@@ -68801,7 +68834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:30" s="12" customFormat="1">
+    <row r="13" spans="1:31" s="12" customFormat="1">
       <c r="A13" s="12">
         <v>12</v>
       </c>
@@ -68871,8 +68904,11 @@
       <c r="AA13" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" s="12" customFormat="1">
+      <c r="AE13" s="12" t="s">
+        <v>2178</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" s="12" customFormat="1">
       <c r="A14" s="12">
         <v>13</v>
       </c>
@@ -68942,8 +68978,11 @@
       <c r="AA14" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" s="12" customFormat="1">
+      <c r="AE14" s="12" t="s">
+        <v>2179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" s="12" customFormat="1">
       <c r="A15" s="12">
         <v>14</v>
       </c>
@@ -69013,7 +69052,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="16" spans="1:30" s="12" customFormat="1">
+    <row r="16" spans="1:31" s="12" customFormat="1">
       <c r="A16" s="12">
         <v>15</v>
       </c>
